--- a/Lista #5/Gosta de IA.xlsx
+++ b/Lista #5/Gosta de IA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\llays\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bc6085ab6e8e595f/Documentos/GitHub/Aprendizado-de-Maquina-I/Lista ^N5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B4BB93-0071-435D-94DC-603A229F57D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{51B4BB93-0071-435D-94DC-603A229F57D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8EACB81-87C4-4668-AF98-BA5770F75616}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{9EC8549A-F750-4CD6-B116-36439716B53B}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="16">
   <si>
     <t>Experiência</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>ENTROPIA</t>
+  </si>
+  <si>
+    <t>Classe</t>
   </si>
 </sst>
 </file>
@@ -776,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{302DA556-2946-4C71-BDC8-579ADDC9AF6E}">
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -820,11 +823,11 @@
       </c>
       <c r="I2" s="8">
         <f>A7/17*F7+A15/17*F15+A23/17*F23</f>
-        <v>0.48320126344536796</v>
+        <v>0.76585588286199258</v>
       </c>
       <c r="J2" s="8">
-        <f>1-I2</f>
-        <v>0.51679873655463204</v>
+        <f>J5-I2</f>
+        <v>0.23164666350712271</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -848,8 +851,8 @@
         <v>0.76203637896371879</v>
       </c>
       <c r="J3" s="8">
-        <f t="shared" ref="J3:J4" si="0">1-I3</f>
-        <v>0.23796362103628121</v>
+        <f>J5-I3</f>
+        <v>0.2354661674053965</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -873,8 +876,8 @@
         <v>0.97383273893786582</v>
       </c>
       <c r="J4" s="8">
-        <f t="shared" si="0"/>
-        <v>2.6167261062134184E-2</v>
+        <f>J5-I4</f>
+        <v>2.3669807431249468E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -890,9 +893,14 @@
       <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="9"/>
+      <c r="H5" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
+      <c r="J5">
+        <f>(-8/17*LOG(8/17,2)-9/17*LOG(9/17,2))</f>
+        <v>0.99750254636911528</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
@@ -925,8 +933,8 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <f>(-D7/A7*LOG(D7/A7,3)-E7/A7*LOG(E7/A7,3))</f>
-        <v>0.45548591500359514</v>
+        <f>(-D7/A7*LOG(D7/A7,2)-E7/A7*LOG(E7/A7,2))</f>
+        <v>0.72192809488736231</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="10"/>
@@ -1055,8 +1063,8 @@
         <v>5</v>
       </c>
       <c r="F15">
-        <f>(-D15/A15*LOG(D15/A15,3)-E15/A15*LOG(E15/A15,3))</f>
-        <v>0.41011848630651804</v>
+        <f>(-D15/A15*LOG(D15/A15,2)-E15/A15*LOG(E15/A15,2))</f>
+        <v>0.65002242164835411</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1171,8 +1179,8 @@
         <v>2</v>
       </c>
       <c r="F23">
-        <f>(-D23/A23*LOG(D23/A23,3)-E23/A23*LOG(E23/A23,3))</f>
-        <v>0.57938016428569505</v>
+        <f>(-D23/A23*LOG(D23/A23,2)-E23/A23*LOG(E23/A23,2))</f>
+        <v>0.91829583405448956</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
